--- a/data/news_and_keyword/kosdaq/SCI평가정보.xlsx
+++ b/data/news_and_keyword/kosdaq/SCI평가정보.xlsx
@@ -3073,12 +3073,12 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>가상화폐 거래소 설립 소식에 나흘째 급등</t>
+          <t>가상화폐거래소 설립에 상한가 행진</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>['가상화폐', '거래소', '설립', '소식에', '나흘째']</t>
+          <t>['가상화폐거래소', '설립에', '상한가', '행진']</t>
         </is>
       </c>
       <c r="D102" t="n">
@@ -3099,12 +3099,12 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>가상화폐거래소 설립에 상한가 행진</t>
+          <t>가상화폐 거래소 설립 소식에 나흘째 급등</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>['가상화폐거래소', '설립에', '상한가', '행진']</t>
+          <t>['가상화폐', '거래소', '설립', '소식에', '나흘째']</t>
         </is>
       </c>
       <c r="D103" t="n">
